--- a/Data/Violence.xlsx
+++ b/Data/Violence.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgnT9zIgLGobJQO/wLd7ADz8+Ja3Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -51,7 +51,7 @@
     <t>Is there anything else you would like to say about this topic?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
